--- a/2021-03-29/web_tables/mae_ind_prod_wide.xlsx
+++ b/2021-03-29/web_tables/mae_ind_prod_wide.xlsx
@@ -394,13 +394,13 @@
         <v>2.84</v>
       </c>
       <c r="C2">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="D2">
-        <v>2.81</v>
+        <v>3.14</v>
       </c>
       <c r="E2">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="C3">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="D3">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="C4">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="D4">
-        <v>2.82</v>
+        <v>2.99</v>
       </c>
       <c r="E4">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="C5">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="D5">
-        <v>2.82</v>
+        <v>2.99</v>
       </c>
       <c r="E5">
-        <v>3.58</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
       <c r="C6">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D6">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3.37</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="C7">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="D7">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="E7">
-        <v>3.33</v>
+        <v>3.17</v>
       </c>
     </row>
   </sheetData>
